--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -510,12 +510,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kadai Paneer</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Paneer, Capsicum</t>
+          <t>Paneer, Tomato, Butter</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Less Coriander</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
+          <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
@@ -574,12 +574,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pizza Sandwich</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pizza Sauce, Bread</t>
+          <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
+          <t>Lentils, Garlic, Ghee</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Pav Bhaji</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mixed Vegetables, Pav Bread</t>
+          <t>Basmati Rice, Vegetables</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Butter Heavy</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -680,7 +680,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -710,7 +710,11 @@
           <t>Chickpeas, Tomato, Spices</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Extra Spicy</t>
@@ -730,12 +734,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Rajma</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
+          <t>Rajma</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -745,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -794,12 +798,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
+          <t>Paneer, Tomato, Butter</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -809,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -826,12 +830,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sambar</t>
+          <t>Kadai Paneer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Toor Dal, Tamarind, Vegetables</t>
+          <t>Paneer, Capsicum</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -841,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Serve with Rice</t>
+          <t>Less Coriander</t>
         </is>
       </c>
     </row>
@@ -868,7 +872,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -890,12 +894,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
+          <t>Lentils, Garlic, Ghee</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -905,7 +909,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
@@ -922,12 +926,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kadai Paneer</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paneer, Capsicum</t>
+          <t>Basmati Rice, Vegetables</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -937,7 +941,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Less Coriander</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -954,12 +958,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Sabhu Dhana</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sabhu Dhana, Onion</t>
+          <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -969,7 +973,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -986,12 +990,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Dal Tadka</t>
+          <t>Chole Masala</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Lentils, Garlic, Ghee</t>
+          <t>Chickpeas, Tomato, Spices</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1001,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>With Extra Ghee</t>
+          <t>Extra Spicy</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1054,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Dhokla</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
+          <t>Besan, Curd, Mustard Seeds</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1065,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>Light &amp; Fluffy</t>
         </is>
       </c>
     </row>
@@ -1082,12 +1086,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
+          <t>Paneer, Tomato, Butter</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1097,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -1114,12 +1118,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
+          <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1129,7 +1133,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>

--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Weekly Menu" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Recipes" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,22 +479,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Dhokla</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
-        </is>
-      </c>
+          <t>Besan, Curd, Mustard Seeds</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Serve with Curd</t>
+          <t>Light &amp; Fluffy</t>
         </is>
       </c>
     </row>
@@ -510,22 +507,18 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Basmati Rice, Vegetables</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -542,24 +535,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pav Bhaji</t>
+          <t>Rajma</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mixed Vegetables, Pav Bread</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Butter Heavy</t>
-        </is>
-      </c>
+          <t>Rajma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -582,11 +567,7 @@
           <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>Crispy Texture</t>
@@ -606,22 +587,18 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Dal Tadka</t>
+          <t>Kadai Paneer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Lentils, Garlic, Ghee</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Paneer, Capsicum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>With Extra Ghee</t>
+          <t>Less Coriander</t>
         </is>
       </c>
     </row>
@@ -638,22 +615,18 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Paneer, Tomato, Butter</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -670,12 +643,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sabhu Dhana</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Sabhu Dhana, Onion</t>
+          <t>Potato, Wheat Flour, Butter</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -685,7 +658,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Serve with Curd</t>
         </is>
       </c>
     </row>
@@ -702,22 +675,18 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Sambar</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Toor Dal, Tamarind, Vegetables</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Serve with Rice</t>
         </is>
       </c>
     </row>
@@ -734,22 +703,18 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rajma</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rajma</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Mixed Vegetables, Pav Bread</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
@@ -774,11 +739,7 @@
           <t>Besan, Curd, Mustard Seeds</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>Light &amp; Fluffy</t>
@@ -798,22 +759,18 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Chole Masala</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Chickpeas, Tomato, Spices</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>Extra Spicy</t>
         </is>
       </c>
     </row>
@@ -830,22 +787,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Kadai Paneer</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Paneer, Capsicum</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Lentils, Garlic, Ghee</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Less Coriander</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
@@ -862,24 +815,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Pizza Sandwich</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Serve with Curd</t>
-        </is>
-      </c>
+          <t>Pizza Sauce, Bread</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -894,22 +839,18 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dal Tadka</t>
+          <t>Kadai Paneer</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Lentils, Garlic, Ghee</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Paneer, Capsicum</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>With Extra Ghee</t>
+          <t>Less Coriander</t>
         </is>
       </c>
     </row>
@@ -926,24 +867,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Rajma</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Less Oil</t>
-        </is>
-      </c>
+          <t>Rajma</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -958,22 +891,18 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Poha</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Flattened Rice, Peanuts</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>Quick Recipe</t>
         </is>
       </c>
     </row>
@@ -990,22 +919,18 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Basmati Rice, Vegetables</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -1022,22 +947,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Rajma</t>
+          <t>Sambar</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rajma</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Toor Dal, Tamarind, Vegetables</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Serve with Rice</t>
         </is>
       </c>
     </row>
@@ -1054,22 +975,18 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Dhokla</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Besan, Curd, Mustard Seeds</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+          <t>Rice, Urad Dal, Potato</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Light &amp; Fluffy</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -1094,11 +1011,7 @@
           <t>Paneer, Tomato, Butter</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>Rich &amp; Creamy</t>
@@ -1126,14 +1039,337 @@
           <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
           <t>Butter Heavy</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Meal Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Recipe Link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ingredients</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kadai Paneer</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Paneer, Capsicum</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Less Coriander</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pizza Sandwich</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Pizza Sauce, Bread</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Rajma</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dinner</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Rajma</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chole Masala</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Chickpeas, Tomato, Spices</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Extra Spicy</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aloo Paratha</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Breakfast, Lunch</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Potato, Wheat Flour, Butter</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Serve with Curd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Masala Dosa</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Rice, Urad Dal, Potato</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Crispy Texture</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vegetable Biryani</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Basmati Rice, Vegetables</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Less Oil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Paneer Butter Masala</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Paneer, Tomato, Butter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rich &amp; Creamy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Poha</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Breakfast</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Flattened Rice, Peanuts</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Quick Recipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dhokla</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Breakfast, Snack</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Besan, Curd, Mustard Seeds</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Light &amp; Fluffy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dal Tadka</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Lentils, Garlic, Ghee</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>With Extra Ghee</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pav Bhaji</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Snack, Dinner</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Mixed Vegetables, Pav Bread</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Butter Heavy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sambar</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Lunch, Dinner</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Toor Dal, Tamarind, Vegetables</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Serve with Rice</t>
         </is>
       </c>
     </row>

--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -1103,6 +1103,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
           <t>Paneer, Capsicum</t>
@@ -1125,11 +1126,13 @@
           <t>Breakfast</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
           <t>Pizza Sauce, Bread</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1142,11 +1145,13 @@
           <t>Dinner</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
           <t>Rajma</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1159,6 +1164,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>Chickpeas, Tomato, Spices</t>
@@ -1208,6 +1214,11 @@
           <t>Breakfast</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Rice, Urad Dal, Potato</t>
@@ -1230,6 +1241,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>Basmati Rice, Vegetables</t>
@@ -1252,6 +1264,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>Paneer, Tomato, Butter</t>
@@ -1274,6 +1287,7 @@
           <t>Breakfast</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
           <t>Flattened Rice, Peanuts</t>
@@ -1296,6 +1310,7 @@
           <t>Breakfast, Snack</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>Besan, Curd, Mustard Seeds</t>
@@ -1318,6 +1333,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>Lentils, Garlic, Ghee</t>
@@ -1340,6 +1356,7 @@
           <t>Snack, Dinner</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>Mixed Vegetables, Pav Bread</t>
@@ -1362,6 +1379,7 @@
           <t>Lunch, Dinner</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>Toor Dal, Tamarind, Vegetables</t>

--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -479,18 +479,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dhokla</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Besan, Curd, Mustard Seeds</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>Potato, Wheat Flour, Butter</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Light &amp; Fluffy</t>
+          <t>Serve with Curd</t>
         </is>
       </c>
     </row>
@@ -507,18 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+          <t>Potato, Wheat Flour, Butter</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>Serve with Curd</t>
         </is>
       </c>
     </row>
@@ -535,16 +543,24 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rajma</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rajma</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>Mixed Vegetables, Pav Bread</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Butter Heavy</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -559,18 +575,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Pizza Sandwich</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
+          <t>Pizza Sauce, Bread</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -595,7 +615,11 @@
           <t>Paneer, Capsicum</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Less Coriander</t>
@@ -615,18 +639,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Rajma</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>Rajma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -643,22 +671,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Dhokla</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
+          <t>Besan, Curd, Mustard Seeds</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Serve with Curd</t>
+          <t>Light &amp; Fluffy</t>
         </is>
       </c>
     </row>
@@ -675,18 +703,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sambar</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Toor Dal, Tamarind, Vegetables</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>Paneer, Tomato, Butter</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Serve with Rice</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -703,18 +735,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Pav Bhaji</t>
+          <t>Chole Masala</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mixed Vegetables, Pav Bread</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Chickpeas, Tomato, Spices</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Butter Heavy</t>
+          <t>Extra Spicy</t>
         </is>
       </c>
     </row>
@@ -731,18 +767,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Dhokla</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Besan, Curd, Mustard Seeds</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Rice, Urad Dal, Potato</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Light &amp; Fluffy</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -759,18 +799,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Sambar</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Toor Dal, Tamarind, Vegetables</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Serve with Rice</t>
         </is>
       </c>
     </row>
@@ -787,18 +831,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Dal Tadka</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Lentils, Garlic, Ghee</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Mixed Vegetables, Pav Bread</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>With Extra Ghee</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
@@ -815,16 +863,24 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pizza Sandwich</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Pizza Sauce, Bread</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+          <t>Potato, Wheat Flour, Butter</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Serve with Curd</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -839,18 +895,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kadai Paneer</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paneer, Capsicum</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>Rice, Urad Dal, Potato</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Less Coriander</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -875,8 +935,16 @@
           <t>Rajma</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -891,18 +959,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Poha</t>
+          <t>Pizza Sandwich</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Flattened Rice, Peanuts</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>Pizza Sauce, Bread</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Quick Recipe</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -919,18 +991,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>Paneer, Tomato, Butter</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -947,18 +1023,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sambar</t>
+          <t>Chole Masala</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Toor Dal, Tamarind, Vegetables</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>Chickpeas, Tomato, Spices</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Serve with Rice</t>
+          <t>Extra Spicy</t>
         </is>
       </c>
     </row>
@@ -983,7 +1063,11 @@
           <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Crispy Texture</t>
@@ -1003,18 +1087,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Kadai Paneer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>Paneer, Capsicum</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>Less Coriander</t>
         </is>
       </c>
     </row>
@@ -1031,18 +1119,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Pav Bhaji</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mixed Vegetables, Pav Bread</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>Basmati Rice, Vegetables</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Butter Heavy</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1279,113 +1371,90 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Poha</t>
+          <t>Dhokla</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Breakfast</t>
+          <t>Breakfast, Snack</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Flattened Rice, Peanuts</t>
+          <t>Besan, Curd, Mustard Seeds</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Quick Recipe</t>
+          <t>Light &amp; Fluffy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dhokla</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Breakfast, Snack</t>
+          <t>Lunch, Dinner</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Besan, Curd, Mustard Seeds</t>
+          <t>Lentils, Garlic, Ghee</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Light &amp; Fluffy</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dal Tadka</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lunch, Dinner</t>
+          <t>Snack, Dinner</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lentils, Garlic, Ghee</t>
+          <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>With Extra Ghee</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pav Bhaji</t>
+          <t>Sambar</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Snack, Dinner</t>
+          <t>Lunch, Dinner</t>
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mixed Vegetables, Pav Bread</t>
+          <t>Toor Dal, Tamarind, Vegetables</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
-        <is>
-          <t>Butter Heavy</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sambar</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Lunch, Dinner</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Toor Dal, Tamarind, Vegetables</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
         <is>
           <t>Serve with Rice</t>
         </is>

--- a/Meals.xlsx
+++ b/Meals.xlsx
@@ -479,22 +479,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
+          <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Serve with Curd</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
@@ -511,22 +511,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Sambar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
+          <t>Toor Dal, Tamarind, Vegetables</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Serve with Curd</t>
+          <t>Serve with Rice</t>
         </is>
       </c>
     </row>
@@ -575,22 +575,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pizza Sandwich</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pizza Sauce, Bread</t>
+          <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Rajma</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rajma</t>
+          <t>Basmati Rice, Vegetables</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -703,12 +703,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
+          <t>Lentils, Garlic, Ghee</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
@@ -735,22 +735,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
+          <t>Potato, Wheat Flour, Butter</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Serve with Curd</t>
         </is>
       </c>
     </row>
@@ -767,22 +767,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Pizza Sandwich</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
+          <t>Pizza Sauce, Bread</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -863,22 +863,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Aloo Paratha</t>
+          <t>Pav Bhaji</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Potato, Wheat Flour, Butter</t>
+          <t>Mixed Vegetables, Pav Bread</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Serve with Curd</t>
+          <t>Butter Heavy</t>
         </is>
       </c>
     </row>
@@ -895,22 +895,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Paneer Butter Masala</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
+          <t>Paneer, Tomato, Butter</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>Rich &amp; Creamy</t>
         </is>
       </c>
     </row>
@@ -959,22 +959,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Pizza Sandwich</t>
+          <t>Aloo Paratha</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pizza Sauce, Bread</t>
+          <t>Potato, Wheat Flour, Butter</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://www.google.com/search?sca_esv=3b736228b17ed96f&amp;rlz=1C1GCEB_enIN1102IN1102&amp;sxsrf=AHTn8zqjLS_VcomtRoAnaT4XYO738oqepA:1742295812723&amp;q=alternatives+for+st.table+streamlit&amp;udm=2&amp;fbs=ABzOT_CWdhQLP1FcmU5B0fn3xuWpA-dk4wpBWOGsoR7DG5zJBkzPWUS0OtApxR2914vrjk4cnNuy70DjYycFY2zPIcdFZx13QdiTBmjcNUG2ZuZAl72gWdYrjkdzdue7bElrCcfCrnSWeoq41LzDfEfhjDlk9FBtx89_I_bM_XtW4uBs4jJf7XRKhUcSVUJiveCnemP4ZEOdiIL3QLAhoYFN0ZtwLCkchg&amp;sa=X&amp;ved=2ahUKEwjNgYvYvZOMAxXIwjgGHW3_KKsQtKgLegQIFRAB&amp;biw=1536&amp;bih=695&amp;dpr=1.25</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Serve with Curd</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Paneer Butter Masala</t>
+          <t>Dal Tadka</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Paneer, Tomato, Butter</t>
+          <t>Lentils, Garlic, Ghee</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rich &amp; Creamy</t>
+          <t>With Extra Ghee</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1023,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chole Masala</t>
+          <t>Vegetable Biryani</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Chickpeas, Tomato, Spices</t>
+          <t>Basmati Rice, Vegetables</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Extra Spicy</t>
+          <t>Less Oil</t>
         </is>
       </c>
     </row>
@@ -1055,22 +1055,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Masala Dosa</t>
+          <t>Pizza Sandwich</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rice, Urad Dal, Potato</t>
+          <t>Pizza Sauce, Bread</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Crispy Texture</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1087,22 +1087,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kadai Paneer</t>
+          <t>Masala Dosa</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Paneer, Capsicum</t>
+          <t>Rice, Urad Dal, Potato</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://share.streamlit.io/?utm_campaign=rethink&amp;utm_content=-ss-streamlit-io-topright&amp;utm_medium=referral&amp;utm_source=streamlit</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Less Coriander</t>
+          <t>Crispy Texture</t>
         </is>
       </c>
     </row>
@@ -1119,12 +1119,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vegetable Biryani</t>
+          <t>Chole Masala</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Basmati Rice, Vegetables</t>
+          <t>Chickpeas, Tomato, Spices</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Less Oil</t>
+          <t>Extra Spicy</t>
         </is>
       </c>
     </row>
